--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,7 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.53170410027141</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H2">
-        <v>1.53170410027141</v>
+        <v>5.557607</v>
       </c>
       <c r="I2">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J2">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N2">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O2">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q2">
-        <v>0.07691947623652906</v>
+        <v>0.1537586077976666</v>
       </c>
       <c r="R2">
-        <v>0.07691947623652906</v>
+        <v>0.9225516467859999</v>
       </c>
       <c r="S2">
-        <v>6.752497744242562E-05</v>
+        <v>8.339761320091846E-05</v>
       </c>
       <c r="T2">
-        <v>6.752497744242562E-05</v>
+        <v>5.560495976790196E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +596,55 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.53170410027141</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H3">
-        <v>1.53170410027141</v>
+        <v>5.557607</v>
       </c>
       <c r="I3">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J3">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N3">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P3">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q3">
-        <v>164.4763837846699</v>
+        <v>0.06271141987611112</v>
       </c>
       <c r="R3">
-        <v>164.4763837846699</v>
+        <v>0.564402778885</v>
       </c>
       <c r="S3">
-        <v>0.1443881920193992</v>
+        <v>3.401424357971894E-05</v>
       </c>
       <c r="T3">
-        <v>0.1443881920193992</v>
+        <v>3.401825135983135E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53170410027141</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H4">
-        <v>1.53170410027141</v>
+        <v>5.557607</v>
       </c>
       <c r="I4">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J4">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N4">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O4">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P4">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q4">
-        <v>203.2731330684391</v>
+        <v>252.1282214395841</v>
       </c>
       <c r="R4">
-        <v>203.2731330684391</v>
+        <v>2269.153992956257</v>
       </c>
       <c r="S4">
-        <v>0.1784465313165906</v>
+        <v>0.1367526162588801</v>
       </c>
       <c r="T4">
-        <v>0.1784465313165906</v>
+        <v>0.136768729344402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53170410027141</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H5">
-        <v>1.53170410027141</v>
+        <v>5.557607</v>
       </c>
       <c r="I5">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J5">
-        <v>0.3231056591465223</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N5">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q5">
-        <v>0.2317106252343891</v>
+        <v>329.1540010109975</v>
       </c>
       <c r="R5">
-        <v>0.2317106252343891</v>
+        <v>2962.386009098978</v>
       </c>
       <c r="S5">
-        <v>0.0002034108330900472</v>
+        <v>0.178530870258481</v>
       </c>
       <c r="T5">
-        <v>0.0002034108330900472</v>
+        <v>0.1785519059304811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,60 +782,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.20886313187605</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H6">
-        <v>3.20886313187605</v>
+        <v>5.557607</v>
       </c>
       <c r="I6">
-        <v>0.6768943408534777</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J6">
-        <v>0.6768943408534777</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N6">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q6">
-        <v>0.1611434423756378</v>
+        <v>0.5988469745353333</v>
       </c>
       <c r="R6">
-        <v>0.1611434423756378</v>
+        <v>5.389622770818</v>
       </c>
       <c r="S6">
-        <v>0.000141462316747319</v>
+        <v>0.000324810487452891</v>
       </c>
       <c r="T6">
-        <v>0.000141462316747319</v>
+        <v>0.0003248487587438244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -838,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.20886313187605</v>
+        <v>1.852535666666667</v>
       </c>
       <c r="H7">
-        <v>3.20886313187605</v>
+        <v>5.557607</v>
       </c>
       <c r="I7">
-        <v>0.6768943408534777</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="J7">
-        <v>0.6768943408534777</v>
+        <v>0.315753910656914</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N7">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O7">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P7">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q7">
-        <v>344.5719077838877</v>
+        <v>0.05199511855633333</v>
       </c>
       <c r="R7">
-        <v>344.5719077838877</v>
+        <v>0.311970711338</v>
       </c>
       <c r="S7">
-        <v>0.3024878930383432</v>
+        <v>2.820179531934335E-05</v>
       </c>
       <c r="T7">
-        <v>0.3024878930383432</v>
+        <v>1.880341215925137E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.20886313187605</v>
+        <v>4.014488</v>
       </c>
       <c r="H8">
-        <v>3.20886313187605</v>
+        <v>12.043464</v>
       </c>
       <c r="I8">
-        <v>0.6768943408534777</v>
+        <v>0.6842460893430861</v>
       </c>
       <c r="J8">
-        <v>0.6768943408534777</v>
+        <v>0.684246089343086</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N8">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O8">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P8">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q8">
-        <v>425.849654831288</v>
+        <v>0.333198489512</v>
       </c>
       <c r="R8">
-        <v>425.849654831288</v>
+        <v>1.999190937072</v>
       </c>
       <c r="S8">
-        <v>0.3738388473671312</v>
+        <v>0.000180724573052968</v>
       </c>
       <c r="T8">
-        <v>0.3738388473671312</v>
+        <v>0.0001204972448008964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +971,300 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.20886313187605</v>
+        <v>4.014488</v>
       </c>
       <c r="H9">
-        <v>3.20886313187605</v>
+        <v>12.043464</v>
       </c>
       <c r="I9">
-        <v>0.6768943408534777</v>
+        <v>0.6842460893430861</v>
       </c>
       <c r="J9">
-        <v>0.6768943408534777</v>
+        <v>0.684246089343086</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.151276362838835</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N9">
-        <v>0.151276362838835</v>
+        <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0006295489643460692</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P9">
-        <v>0.0006295489643460692</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q9">
-        <v>0.4854251434378418</v>
+        <v>0.1358971096133333</v>
       </c>
       <c r="R9">
-        <v>0.4854251434378418</v>
+        <v>1.22307398652</v>
       </c>
       <c r="S9">
-        <v>0.000426138131256022</v>
+        <v>7.370965921836075E-05</v>
       </c>
       <c r="T9">
-        <v>0.000426138131256022</v>
+        <v>7.371834417134568E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.014488</v>
+      </c>
+      <c r="H10">
+        <v>12.043464</v>
+      </c>
+      <c r="I10">
+        <v>0.6842460893430861</v>
+      </c>
+      <c r="J10">
+        <v>0.684246089343086</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N10">
+        <v>408.296951</v>
+      </c>
+      <c r="O10">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P10">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q10">
+        <v>546.3677367420294</v>
+      </c>
+      <c r="R10">
+        <v>4917.309630678265</v>
+      </c>
+      <c r="S10">
+        <v>0.2963461091832577</v>
+      </c>
+      <c r="T10">
+        <v>0.2963810266154208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.014488</v>
+      </c>
+      <c r="H11">
+        <v>12.043464</v>
+      </c>
+      <c r="I11">
+        <v>0.6842460893430861</v>
+      </c>
+      <c r="J11">
+        <v>0.684246089343086</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N11">
+        <v>533.032654</v>
+      </c>
+      <c r="O11">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P11">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q11">
+        <v>713.2843976970506</v>
+      </c>
+      <c r="R11">
+        <v>6419.559579273456</v>
+      </c>
+      <c r="S11">
+        <v>0.3868805600767897</v>
+      </c>
+      <c r="T11">
+        <v>0.3869261448686703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.014488</v>
+      </c>
+      <c r="H12">
+        <v>12.043464</v>
+      </c>
+      <c r="I12">
+        <v>0.6842460893430861</v>
+      </c>
+      <c r="J12">
+        <v>0.684246089343086</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.323258</v>
+      </c>
+      <c r="N12">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P12">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q12">
+        <v>1.297715361904</v>
+      </c>
+      <c r="R12">
+        <v>11.679438257136</v>
+      </c>
+      <c r="S12">
+        <v>0.0007038719025043233</v>
+      </c>
+      <c r="T12">
+        <v>0.0007039548372844524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.014488</v>
+      </c>
+      <c r="H13">
+        <v>12.043464</v>
+      </c>
+      <c r="I13">
+        <v>0.6842460893430861</v>
+      </c>
+      <c r="J13">
+        <v>0.684246089343086</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.028067</v>
+      </c>
+      <c r="N13">
+        <v>0.056134</v>
+      </c>
+      <c r="O13">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P13">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.112674634696</v>
+      </c>
+      <c r="R13">
+        <v>0.6760478081760001</v>
+      </c>
+      <c r="S13">
+        <v>6.111394826296284E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.074743273806625E-05</v>
       </c>
     </row>
   </sheetData>
